--- a/biology/Zoologie/Fungia/Fungia.xlsx
+++ b/biology/Zoologie/Fungia/Fungia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fungia un est genre des scléractiniaires (coraux durs) de la famille des Fungiidae[1]. Ce nom a été choisi en référence avec leur ressemblance physique avec les champignons terrestres (les Fungi). Cependant, ils ne sont pas fixés au sol marin mais plutôt "posés" dessus.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fungia un est genre des scléractiniaires (coraux durs) de la famille des Fungiidae. Ce nom a été choisi en référence avec leur ressemblance physique avec les champignons terrestres (les Fungi). Cependant, ils ne sont pas fixés au sol marin mais plutôt "posés" dessus.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Fungia est le genre type de la famille des Fungiidae, ce qui signifie qu'historiquement, la plupart des espèces de cette famille ont été rangées dans celui-ci. Cependant, les progrès de la systématique puis de la phylogénie ont redistribué l'essentiel de ces espèces dans d'autres genres (notamment Cycloseris ou Danafungia), aussi seule l'espèce type est encore considérée de manière consensuelle comme appartenant à ce genre.
-Celle-ci se distingue par une bouche centrale bien visible, des côtes marquées, et des dents septales qui ne forment pas de grands lobes[2]. 
-Ainsi, World Register of Marine Species                               (14 décembre 2015)[3] et NCBI  (14 décembre 2015)[4] ne reconnaissent qu'une seule espèce :
+Celle-ci se distingue par une bouche centrale bien visible, des côtes marquées, et des dents septales qui ne forment pas de grands lobes. 
+Ainsi, World Register of Marine Species                               (14 décembre 2015) et NCBI  (14 décembre 2015) ne reconnaissent qu'une seule espèce :
 Fungia fungites Linnaeus, 1758
-Mais ITIS      (14 décembre 2015)[1] reconnaît encore de nombreuses espèces déplacées par les classifications à jour :
+Mais ITIS      (14 décembre 2015) reconnaît encore de nombreuses espèces déplacées par les classifications à jour :
 Fungia concinna Verrill, 1864
 Fungia corona Doderlein, 1901
 Fungia costulata Ortmann, 1889
